--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -1358,7 +1358,7 @@
         <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
         <v>2.4</v>
@@ -1947,19 +1947,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J13" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
@@ -1977,10 +1977,10 @@
         <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
         <v>3.75</v>
@@ -1989,16 +1989,16 @@
         <v>1.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V13" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y13" t="n">
         <v>6</v>
@@ -2010,16 +2010,16 @@
         <v>9</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF13" t="n">
         <v>7.5</v>
@@ -2031,10 +2031,10 @@
         <v>67</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>15</v>
@@ -2382,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L16" t="n">
         <v>3.75</v>
@@ -2403,7 +2403,7 @@
         <v>3.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S16" t="n">
         <v>6.5</v>
@@ -2689,7 +2689,7 @@
         <v>2.15</v>
       </c>
       <c r="R18" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
         <v>3.75</v>
@@ -2830,7 +2830,7 @@
         <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
         <v>3.75</v>
@@ -2947,7 +2947,7 @@
         <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -496,147 +496,147 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over15_FT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under15_FT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over25_FT</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under25_FT</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over35_FT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under35_FT</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_Yes</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_No</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over05_FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_FT</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over15_FT</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under15_FT</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over25_FT</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under25_FT</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over35_FT</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under35_FT</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_HT</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_HT</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_Yes</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_No</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-0</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-0</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-1</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-0</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-1</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -691,39 +691,105 @@
           <t>Neftci Baku</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>30</v>
+      </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
@@ -781,91 +847,91 @@
         <v>7.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="N3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC3" t="n">
         <v>6.3</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AD3" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.3</v>
+        <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="AH3" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="AL3" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
         <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>150</v>
+        <v>1.09</v>
       </c>
       <c r="AO3" t="n">
-        <v>101</v>
+        <v>6.3</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -922,91 +988,91 @@
         <v>4.55</v>
       </c>
       <c r="M4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN4" t="n">
         <v>1.14</v>
       </c>
-      <c r="N4" t="n">
+      <c r="AO4" t="n">
         <v>5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>101</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1063,91 +1129,91 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="N5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC5" t="n">
         <v>6.8</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.8</v>
+        <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.6</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>15.5</v>
       </c>
-      <c r="AH5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>30</v>
-      </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
         <v>50</v>
       </c>
       <c r="AN5" t="n">
-        <v>50</v>
+        <v>1.07</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>6.8</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1185,39 +1251,105 @@
           <t>Torpedo Kutaisi</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>28</v>
+      </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
@@ -1256,39 +1388,105 @@
           <t>Kolkheti 1913</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>27</v>
+      </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
@@ -1328,7 +1526,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
@@ -1346,91 +1544,91 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W8" t="n">
+        <v>12</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
         <v>19</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AC8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>12</v>
       </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
         <v>21</v>
       </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>1.03</v>
       </c>
       <c r="AO8" t="n">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>1.8</v>
@@ -1490,85 +1688,85 @@
       <c r="L9" t="n">
         <v>6.4</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.4</v>
+      </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>4.4</v>
+        <v>2.22</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.52</v>
       </c>
-      <c r="R9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.88</v>
+      </c>
       <c r="W9" t="n">
-        <v>1.72</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>1.88</v>
+        <v>7.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.2</v>
+        <v>9.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
         <v>9.25</v>
       </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>22</v>
-      </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.25</v>
+        <v>65</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>450</v>
       </c>
       <c r="AH9" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM9" t="n">
         <v>60</v>
       </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>450</v>
-      </c>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
@@ -1623,89 +1821,89 @@
       <c r="L10" t="n">
         <v>5.3</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.25</v>
+      </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>2.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.87</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>2.72</v>
+        <v>1.39</v>
       </c>
       <c r="T10" t="n">
-        <v>1.35</v>
+        <v>2.57</v>
       </c>
       <c r="U10" t="n">
-        <v>1.39</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>2.57</v>
+        <v>1.82</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>6.8</v>
       </c>
       <c r="X10" t="n">
-        <v>1.82</v>
+        <v>7.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.2</v>
+        <v>11.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.25</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.5</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>75</v>
+        <v>15.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>15.5</v>
+        <v>35</v>
       </c>
       <c r="AJ10" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN10" t="n">
         <v>50</v>
       </c>
-      <c r="AO10" t="n">
-        <v>600</v>
-      </c>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
@@ -1742,39 +1940,97 @@
           <t>RFS</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.57</v>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.85</v>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W11" t="n">
+        <v>28</v>
+      </c>
+      <c r="X11" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>18</v>
+      </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
@@ -1814,102 +2070,102 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+        <v>3.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.3</v>
+      </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>1.88</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T12" t="n">
         <v>1.35</v>
       </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.98</v>
+      </c>
       <c r="W12" t="n">
-        <v>1.65</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AC12" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>7.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.9</v>
+        <v>60</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>450</v>
       </c>
       <c r="AH12" t="n">
-        <v>55</v>
+        <v>11.25</v>
       </c>
       <c r="AI12" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK12" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AL12" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>400</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
@@ -1965,91 +2221,91 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>2.05</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>3.75</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.25</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>1.73</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>15</v>
       </c>
-      <c r="AD13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>23</v>
-      </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>41</v>
+        <v>1.04</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2091,106 +2347,106 @@
         <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="L14" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.45</v>
       </c>
       <c r="N14" t="n">
-        <v>6.3</v>
+        <v>2.57</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>2.32</v>
       </c>
       <c r="P14" t="n">
-        <v>2.77</v>
+        <v>1.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>4.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.23</v>
+        <v>2.42</v>
       </c>
       <c r="U14" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="W14" t="n">
-        <v>1.9</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.25</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>12.5</v>
+        <v>37</v>
       </c>
       <c r="AB14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC14" t="n">
-        <v>35</v>
+        <v>5.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>45</v>
+        <v>5.9</v>
       </c>
       <c r="AE14" t="n">
-        <v>6.3</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.1</v>
+        <v>100</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>800</v>
       </c>
       <c r="AH14" t="n">
-        <v>80</v>
+        <v>5.9</v>
       </c>
       <c r="AI14" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>8.75</v>
+        <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM14" t="n">
-        <v>18.5</v>
+        <v>37</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>1.1</v>
       </c>
       <c r="AO14" t="n">
-        <v>800</v>
+        <v>5.9</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2229,109 +2485,109 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="J15" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="L15" t="n">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="N15" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>2.67</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>1.33</v>
+        <v>2.92</v>
       </c>
       <c r="U15" t="n">
-        <v>1.4</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>2.7</v>
+        <v>1.78</v>
       </c>
       <c r="W15" t="n">
-        <v>1.98</v>
+        <v>19.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.75</v>
+        <v>50</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.5</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AC15" t="n">
-        <v>65</v>
+        <v>8.25</v>
       </c>
       <c r="AD15" t="n">
-        <v>65</v>
+        <v>8.75</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.7</v>
+        <v>90</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="AH15" t="n">
-        <v>100</v>
+        <v>6.8</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.7</v>
+        <v>8.25</v>
       </c>
       <c r="AK15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO15" t="n">
         <v>8.25</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>900</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2388,91 +2644,91 @@
         <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="N16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC16" t="n">
         <v>5</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>34</v>
-      </c>
       <c r="AD16" t="n">
-        <v>51</v>
+        <v>5.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.5</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="AH16" t="n">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>51</v>
+        <v>1.11</v>
       </c>
       <c r="AO16" t="n">
-        <v>101</v>
+        <v>5.5</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2515,13 +2771,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>2.6</v>
@@ -2533,91 +2789,91 @@
         <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>3.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.36</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>1.73</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
         <v>15</v>
       </c>
-      <c r="AD17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
       <c r="AF17" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
         <v>41</v>
       </c>
-      <c r="AI17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>13</v>
-      </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>34</v>
+        <v>1.05</v>
       </c>
       <c r="AO17" t="n">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2662,103 +2918,103 @@
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
         <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
         <v>4.33</v>
       </c>
       <c r="M18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
         <v>1.07</v>
       </c>
-      <c r="N18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AO18" t="n">
         <v>9</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>351</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -2797,109 +3053,109 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
         <v>1.07</v>
       </c>
-      <c r="N19" t="n">
+      <c r="AO19" t="n">
         <v>9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>301</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -2938,10 +3194,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
         <v>3.5</v>
@@ -2956,91 +3212,91 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
         <v>1.05</v>
       </c>
-      <c r="N20" t="n">
+      <c r="AO20" t="n">
         <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>201</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -829,64 +829,64 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M3" t="n">
         <v>1.42</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.4</v>
-      </c>
       <c r="N3" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="O3" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T3" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
         <v>4.8</v>
       </c>
       <c r="X3" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>14.5</v>
@@ -895,43 +895,43 @@
         <v>45</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AG3" t="n">
         <v>101</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>250</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
         <v>1.09</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -1261,13 +1261,13 @@
         <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.32</v>
@@ -1300,25 +1300,25 @@
         <v>1.92</v>
       </c>
       <c r="W6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD6" t="n">
         <v>5.2</v>
@@ -1333,22 +1333,22 @@
         <v>300</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AI6" t="n">
         <v>14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
         <v>35</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1392,7 +1392,7 @@
         <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
         <v>2.45</v>
@@ -1425,10 +1425,10 @@
         <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="U7" t="n">
         <v>1.92</v>
@@ -1455,7 +1455,7 @@
         <v>28</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>5.3</v>
@@ -1671,22 +1671,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="K9" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.17</v>
@@ -1695,27 +1695,27 @@
         <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X9" t="n">
         <v>7.2</v>
@@ -1724,7 +1724,7 @@
         <v>8.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
         <v>10.5</v>
@@ -1736,13 +1736,13 @@
         <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG9" t="n">
         <v>450</v>
@@ -1754,7 +1754,7 @@
         <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
         <v>200</v>
@@ -1763,7 +1763,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1807,19 +1807,19 @@
         <v>1.55</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L10" t="n">
         <v>5.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.25</v>
@@ -1852,7 +1852,7 @@
         <v>1.82</v>
       </c>
       <c r="W10" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X10" t="n">
         <v>7.2</v>
@@ -1867,25 +1867,25 @@
         <v>12.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE10" t="n">
         <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG10" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>35</v>
@@ -1975,10 +1975,10 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W11" t="n">
         <v>28</v>
@@ -2070,99 +2070,99 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
         <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="M12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P12" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>7.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI12" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
@@ -2227,10 +2227,10 @@
         <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q13" t="n">
         <v>3.75</v>
@@ -2245,10 +2245,10 @@
         <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="W13" t="n">
         <v>6</v>
@@ -2266,10 +2266,10 @@
         <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>7.5</v>
@@ -2302,10 +2302,10 @@
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
         <v>3.05</v>
@@ -2359,37 +2359,37 @@
         <v>1.98</v>
       </c>
       <c r="L14" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="M14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="N14" t="n">
         <v>2.57</v>
       </c>
       <c r="O14" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="P14" t="n">
         <v>1.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="R14" t="n">
         <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T14" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W14" t="n">
         <v>8.5</v>
@@ -2404,7 +2404,7 @@
         <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB14" t="n">
         <v>50</v>
@@ -2416,7 +2416,7 @@
         <v>5.9</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF14" t="n">
         <v>100</v>
@@ -2425,7 +2425,7 @@
         <v>800</v>
       </c>
       <c r="AH14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI14" t="n">
         <v>9</v>
@@ -2437,10 +2437,10 @@
         <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN14" t="n">
         <v>1.1</v>
@@ -2485,109 +2485,109 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J15" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="K15" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="M15" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="W15" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="X15" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AA15" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG15" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AM15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN15" t="n">
         <v>1.04</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
         <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="N16" t="n">
         <v>2.1</v>
@@ -2659,7 +2659,7 @@
         <v>6.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="S16" t="n">
         <v>1.67</v>
@@ -2668,10 +2668,10 @@
         <v>2.1</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
         <v>6.5</v>
@@ -2725,7 +2725,7 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AO16" t="n">
         <v>5.5</v>
@@ -2795,16 +2795,16 @@
         <v>3.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P17" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -2936,16 +2936,16 @@
         <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3011,10 +3011,10 @@
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AO18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3152,10 +3152,10 @@
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS28"/>
+  <dimension ref="A1:AS29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I2" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.02</v>
       </c>
       <c r="L2" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="M2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="N2" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="O2" t="n">
         <v>2.02</v>
@@ -722,10 +722,10 @@
         <v>1.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -734,37 +734,37 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>75</v>
@@ -773,19 +773,19 @@
         <v>700</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM2" t="n">
         <v>30</v>
@@ -829,64 +829,64 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="N3" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="O3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V3" t="n">
         <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y3" t="n">
         <v>8.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>14.5</v>
@@ -895,10 +895,10 @@
         <v>45</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -910,13 +910,13 @@
         <v>101</v>
       </c>
       <c r="AH3" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>250</v>
@@ -931,7 +931,7 @@
         <v>1.09</v>
       </c>
       <c r="AO3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -985,16 +985,16 @@
         <v>1.85</v>
       </c>
       <c r="L4" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.53</v>
       </c>
       <c r="N4" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="O4" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="P4" t="n">
         <v>1.45</v>
@@ -1018,7 +1018,7 @@
         <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X4" t="n">
         <v>9.75</v>
@@ -1039,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AE4" t="n">
         <v>16</v>
@@ -1051,7 +1051,7 @@
         <v>101</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1063,10 +1063,10 @@
         <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN4" t="n">
         <v>1.14</v>
@@ -1111,34 +1111,34 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.72</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
         <v>3.3</v>
@@ -1147,10 +1147,10 @@
         <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
         <v>1.88</v>
@@ -1159,10 +1159,10 @@
         <v>1.82</v>
       </c>
       <c r="W5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y5" t="n">
         <v>8</v>
@@ -1171,49 +1171,49 @@
         <v>13.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB5" t="n">
         <v>28</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
         <v>1.07</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1912,7 +1912,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>f7cHz2A6</t>
+          <t>rNpTCLQb</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1922,114 +1922,118 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8.75</v>
+        <v>1.44</v>
       </c>
       <c r="H11" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.21</v>
+        <v>6.3</v>
       </c>
       <c r="J11" t="n">
-        <v>7.1</v>
+        <v>1.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.85</v>
+        <v>2.32</v>
       </c>
       <c r="L11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.65</v>
+      </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>3.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>2.32</v>
       </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W11" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF11" t="n">
         <v>60</v>
       </c>
-      <c r="Y11" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>175</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AG11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="n">
         <v>50</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>18</v>
       </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
@@ -2041,7 +2045,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>xOQS6wE5</t>
+          <t>f7cHz2A6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2051,118 +2055,114 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Venados</t>
+          <t>Auda</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.02</v>
+        <v>8.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>1.26</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="L12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.35</v>
-      </c>
+        <v>1.62</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.91</v>
+        <v>2.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.65</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>25</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="Y12" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH12" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AI12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM12" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>32</v>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
@@ -2174,7 +2174,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fs2oCBL7</t>
+          <t>xOQS6wE5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2184,129 +2184,121 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>3.15</v>
       </c>
       <c r="J13" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
+        <v>1.37</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.63</v>
+        <v>2.02</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AH13" t="n">
         <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
@@ -2315,7 +2307,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CUKnXRV9</t>
+          <t>fs2oCBL7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2325,128 +2317,128 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.65</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
         <v>2.1</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.44</v>
       </c>
-      <c r="N14" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.47</v>
-      </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="AH14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO14" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>5.9</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2456,7 +2448,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bRhzONhd</t>
+          <t>CUKnXRV9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2466,7 +2458,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2476,88 +2468,88 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>O. Ljubljana</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>3.65</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>7.9</v>
+        <v>4.15</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="L15" t="n">
-        <v>1.78</v>
+        <v>2.72</v>
       </c>
       <c r="M15" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="N15" t="n">
-        <v>3.95</v>
+        <v>2.57</v>
       </c>
       <c r="O15" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.52</v>
+        <v>4.05</v>
       </c>
       <c r="R15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.47</v>
       </c>
-      <c r="S15" t="n">
-        <v>1.34</v>
-      </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W15" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AA15" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AB15" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.5</v>
+        <v>5.9</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AF15" t="n">
         <v>100</v>
@@ -2566,28 +2558,28 @@
         <v>800</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>19.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2597,7 +2589,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>xGMFBP76</t>
+          <t>bRhzONhd</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2607,142 +2599,138 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>O. Ljubljana</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>8.75</v>
       </c>
       <c r="H16" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>1.34</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="K16" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L16" t="n">
         <v>1.8</v>
       </c>
-      <c r="L16" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M16" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="N16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.1</v>
       </c>
-      <c r="O16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.36</v>
-      </c>
       <c r="Q16" t="n">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>2.95</v>
       </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="W16" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="AA16" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AB16" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AC16" t="n">
-        <v>5</v>
+        <v>8.25</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE16" t="n">
         <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AG16" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>1.78</v>
-      </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06DslQsp</t>
+          <t>xGMFBP76</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2752,138 +2740,142 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="I17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L17" t="n">
         <v>3.75</v>
       </c>
-      <c r="J17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M17" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="P17" t="n">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
         <v>29</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
+      <c r="AR17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>88Y2e8kA</t>
+          <t>06DslQsp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2893,7 +2885,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2903,85 +2895,85 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Erokspor</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
         <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
         <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P18" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -2990,10 +2982,10 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
@@ -3005,16 +2997,16 @@
         <v>41</v>
       </c>
       <c r="AL18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM18" t="n">
         <v>34</v>
       </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
       <c r="AN18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3024,7 +3016,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>tdc8ZQSj</t>
+          <t>88Y2e8kA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3044,31 +3036,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.33</v>
@@ -3101,19 +3093,19 @@
         <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
         <v>29</v>
@@ -3131,22 +3123,22 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
         <v>41</v>
@@ -3165,7 +3157,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MBbxA743</t>
+          <t>tdc8ZQSj</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3175,7 +3167,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3185,103 +3177,103 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
         <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="N20" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="P20" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA20" t="n">
         <v>17</v>
       </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
         <v>41</v>
@@ -3290,13 +3282,13 @@
         <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3306,7 +3298,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>I1AwRPa3</t>
+          <t>MBbxA743</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3316,59 +3308,129 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>11</v>
+      </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
@@ -3377,7 +3439,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>jeIi3M7d</t>
+          <t>I1AwRPa3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3397,12 +3459,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -3448,7 +3510,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>YmJp34fU</t>
+          <t>jeIi3M7d</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3468,12 +3530,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -3519,7 +3581,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CEleN7un</t>
+          <t>YmJp34fU</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3539,12 +3601,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Montevideo City</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -3590,7 +3652,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>QNFx5QPH</t>
+          <t>CEleN7un</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3610,12 +3672,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Montevideo City</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -3661,7 +3723,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>pSn3LoAb</t>
+          <t>QNFx5QPH</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3681,12 +3743,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -3732,7 +3794,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vHbnP3UF</t>
+          <t>pSn3LoAb</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3752,12 +3814,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -3803,7 +3865,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4U24JPvB</t>
+          <t>vHbnP3UF</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3823,12 +3885,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -3871,6 +3933,77 @@
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4U24JPvB</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -829,28 +829,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L3" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="N3" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="O3" t="n">
         <v>2.2</v>
@@ -859,7 +859,7 @@
         <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="R3" t="n">
         <v>1.22</v>
@@ -871,22 +871,22 @@
         <v>2.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
         <v>4.75</v>
       </c>
       <c r="X3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>8.75</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>14.5</v>
@@ -898,34 +898,34 @@
         <v>6.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG3" t="n">
         <v>101</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
         <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>250</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
         <v>1.09</v>
@@ -976,7 +976,7 @@
         <v>2.62</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J4" t="n">
         <v>2.87</v>
@@ -985,7 +985,7 @@
         <v>1.85</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="M4" t="n">
         <v>1.53</v>
@@ -1021,7 +1021,7 @@
         <v>5.6</v>
       </c>
       <c r="X4" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>13.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="n">
         <v>45</v>
@@ -1117,28 +1117,28 @@
         <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
         <v>2.22</v>
       </c>
       <c r="K5" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L5" t="n">
         <v>5.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
         <v>3.3</v>
@@ -1147,28 +1147,28 @@
         <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U5" t="n">
         <v>1.88</v>
       </c>
       <c r="V5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X5" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>14</v>
@@ -1183,7 +1183,7 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF5" t="n">
         <v>80</v>
@@ -1192,16 +1192,16 @@
         <v>700</v>
       </c>
       <c r="AH5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
         <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
         <v>55</v>
@@ -1550,7 +1550,7 @@
         <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
         <v>2.4</v>
@@ -1568,10 +1568,10 @@
         <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
@@ -1804,22 +1804,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K10" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.25</v>
@@ -1831,13 +1831,13 @@
         <v>1.75</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
         <v>1.39</v>
@@ -1846,22 +1846,22 @@
         <v>2.57</v>
       </c>
       <c r="U10" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="W10" t="n">
         <v>6.7</v>
       </c>
       <c r="X10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AA10" t="n">
         <v>12.5</v>
@@ -1870,16 +1870,16 @@
         <v>25</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
         <v>500</v>
@@ -2074,50 +2074,50 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="H12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="n">
         <v>1.26</v>
       </c>
       <c r="J12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y12" t="n">
         <v>22</v>
@@ -2129,40 +2129,40 @@
         <v>70</v>
       </c>
       <c r="AB12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG12" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="K13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="M13" t="n">
         <v>1.23</v>
@@ -2230,10 +2230,10 @@
         <v>1.7</v>
       </c>
       <c r="P13" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R13" t="n">
         <v>1.37</v>
@@ -2241,37 +2241,37 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y13" t="n">
         <v>8.5</v>
       </c>
-      <c r="X13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z13" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB13" t="n">
         <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
         <v>55</v>
@@ -2280,22 +2280,22 @@
         <v>400</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
@@ -2435,10 +2435,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2618,40 +2618,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="I16" t="n">
         <v>1.34</v>
       </c>
       <c r="J16" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="K16" t="n">
         <v>2.37</v>
       </c>
       <c r="L16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M16" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="N16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
         <v>1.35</v>
@@ -2660,28 +2660,28 @@
         <v>2.95</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W16" t="n">
         <v>21</v>
       </c>
       <c r="X16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AA16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="n">
         <v>8.25</v>
@@ -2690,31 +2690,31 @@
         <v>9.25</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG16" t="n">
         <v>900</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AI16" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
         <v>8.25</v>
       </c>
-      <c r="AK16" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>1.04</v>
@@ -2777,10 +2777,10 @@
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O17" t="n">
         <v>3.1</v>
@@ -2940,7 +2940,7 @@
         <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T18" t="n">
         <v>2.75</v>
@@ -3072,7 +3072,7 @@
         <v>2.05</v>
       </c>
       <c r="P19" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q19" t="n">
         <v>3.5</v>
@@ -3081,10 +3081,10 @@
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U19" t="n">
         <v>1.83</v>
@@ -3213,7 +3213,7 @@
         <v>2.05</v>
       </c>
       <c r="P20" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
         <v>3.5</v>
@@ -3222,10 +3222,10 @@
         <v>1.29</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U20" t="n">
         <v>1.83</v>
@@ -3345,16 +3345,16 @@
         <v>4.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P21" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="Q21" t="n">
         <v>3.25</v>
@@ -3363,7 +3363,7 @@
         <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T21" t="n">
         <v>2.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -829,40 +829,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>8.75</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="K3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>1.42</v>
       </c>
       <c r="N3" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="O3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
         <v>3.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
         <v>1.45</v>
@@ -871,67 +871,67 @@
         <v>2.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="X3" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AA3" t="n">
         <v>14.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AG3" t="n">
         <v>101</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
         <v>1.09</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -970,40 +970,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="I4" t="n">
-        <v>4.05</v>
+        <v>3.65</v>
       </c>
       <c r="J4" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>1.85</v>
       </c>
       <c r="L4" t="n">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S4" t="n">
         <v>1.55</v>
@@ -1012,67 +1012,67 @@
         <v>2.3</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="n">
         <v>23</v>
       </c>
-      <c r="AA4" t="n">
-        <v>22</v>
-      </c>
       <c r="AB4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AD4" t="n">
         <v>5.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AO4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1111,58 +1111,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="K5" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P5" t="n">
         <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T5" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="U5" t="n">
         <v>1.88</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y5" t="n">
         <v>8</v>
@@ -1171,19 +1171,19 @@
         <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB5" t="n">
         <v>28</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>80</v>
@@ -1192,13 +1192,13 @@
         <v>700</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI5" t="n">
         <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
         <v>110</v>
@@ -1213,7 +1213,7 @@
         <v>1.07</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1526,19 +1526,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
         <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
         <v>3.4</v>
@@ -1553,7 +1553,7 @@
         <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
         <v>2.2</v>
@@ -1562,16 +1562,16 @@
         <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
@@ -1592,7 +1592,7 @@
         <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
         <v>7.5</v>
@@ -1604,13 +1604,13 @@
         <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
@@ -1631,10 +1631,10 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1674,19 +1674,19 @@
         <v>1.35</v>
       </c>
       <c r="H9" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
         <v>1.78</v>
       </c>
       <c r="K9" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L9" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.17</v>
@@ -1695,30 +1695,30 @@
         <v>4.4</v>
       </c>
       <c r="O9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.53</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
         <v>8.25</v>
@@ -1730,31 +1730,31 @@
         <v>10.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD9" t="n">
         <v>9.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>200</v>
@@ -2074,95 +2074,95 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="H12" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="K12" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="L12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="P12" t="n">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="W12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z12" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AA12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB12" t="n">
         <v>70</v>
       </c>
-      <c r="AB12" t="n">
-        <v>55</v>
-      </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG12" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AK12" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AL12" t="n">
         <v>8.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
         <v>2.47</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L13" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.23</v>
@@ -2233,7 +2233,7 @@
         <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R13" t="n">
         <v>1.37</v>
@@ -2250,13 +2250,13 @@
         <v>8.25</v>
       </c>
       <c r="X13" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
         <v>14.5</v>
@@ -2265,7 +2265,7 @@
         <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>7.2</v>
@@ -2280,22 +2280,22 @@
         <v>400</v>
       </c>
       <c r="AH13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>11.75</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
       </c>
       <c r="AK13" t="n">
         <v>45</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
@@ -2336,13 +2336,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
         <v>2.3</v>
@@ -2351,7 +2351,7 @@
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.36</v>
@@ -2360,31 +2360,31 @@
         <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
         <v>7</v>
@@ -2396,13 +2396,13 @@
         <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
         <v>7.5</v>
@@ -2411,19 +2411,19 @@
         <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="n">
         <v>1250</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>51</v>
@@ -2432,7 +2432,7 @@
         <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
         <v>1.06</v>
@@ -2477,25 +2477,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.65</v>
+        <v>2.67</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>2.67</v>
       </c>
       <c r="J15" t="n">
-        <v>4.15</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
         <v>1.98</v>
       </c>
       <c r="L15" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="N15" t="n">
         <v>2.57</v>
@@ -2519,61 +2519,61 @@
         <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
         <v>1.75</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z15" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
         <v>40</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>50</v>
       </c>
       <c r="AC15" t="n">
         <v>5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG15" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AK15" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN15" t="n">
         <v>1.1</v>
@@ -2618,19 +2618,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="H16" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="I16" t="n">
         <v>1.34</v>
       </c>
       <c r="J16" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L16" t="n">
         <v>1.83</v>
@@ -2639,25 +2639,25 @@
         <v>1.23</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.7</v>
       </c>
       <c r="P16" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R16" t="n">
         <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T16" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U16" t="n">
         <v>2.02</v>
@@ -2666,31 +2666,31 @@
         <v>1.7</v>
       </c>
       <c r="W16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X16" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE16" t="n">
         <v>21</v>
-      </c>
-      <c r="X16" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>22</v>
       </c>
       <c r="AF16" t="n">
         <v>110</v>
@@ -2699,10 +2699,10 @@
         <v>900</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI16" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.5</v>
@@ -2717,10 +2717,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2904,16 +2904,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
@@ -2940,7 +2940,7 @@
         <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
         <v>2.75</v>
@@ -2958,22 +2958,22 @@
         <v>9.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
         <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -2982,7 +2982,7 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
         <v>11</v>
@@ -3045,22 +3045,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>1.33</v>
@@ -3072,40 +3072,40 @@
         <v>2.05</v>
       </c>
       <c r="P19" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
         <v>29</v>
@@ -3117,37 +3117,37 @@
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
         <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>34</v>
       </c>
       <c r="AM19" t="n">
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.05</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M20" t="n">
         <v>1.33</v>
@@ -3210,22 +3210,22 @@
         <v>3.25</v>
       </c>
       <c r="O20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
         <v>1.83</v>
@@ -3234,28 +3234,28 @@
         <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -3264,25 +3264,25 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
         <v>1.07</v>
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
         <v>2.6</v>
@@ -3351,34 +3351,34 @@
         <v>3.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P21" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S21" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
         <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
@@ -3393,7 +3393,7 @@
         <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
@@ -3405,13 +3405,13 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
         <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>13</v>
@@ -3420,16 +3420,16 @@
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -829,40 +829,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.42</v>
       </c>
       <c r="N3" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="O3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
         <v>1.45</v>
@@ -871,40 +871,40 @@
         <v>2.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC3" t="n">
         <v>6.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG3" t="n">
         <v>101</v>
@@ -916,16 +916,16 @@
         <v>45</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
         <v>1.09</v>
@@ -970,22 +970,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H4" t="n">
         <v>2.65</v>
       </c>
       <c r="I4" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="L4" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="M4" t="n">
         <v>1.5</v>
@@ -1006,10 +1006,10 @@
         <v>1.17</v>
       </c>
       <c r="S4" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U4" t="n">
         <v>1.98</v>
@@ -1018,7 +1018,7 @@
         <v>1.75</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
@@ -1027,7 +1027,7 @@
         <v>9.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
@@ -1051,16 +1051,16 @@
         <v>900</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
         <v>40</v>
@@ -1111,55 +1111,55 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L5" t="n">
         <v>5.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X5" t="n">
         <v>7.4</v>
@@ -1171,49 +1171,49 @@
         <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD5" t="n">
         <v>6.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ5" t="n">
         <v>16.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
         <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
         <v>1.07</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1526,22 +1526,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.14</v>
@@ -1574,10 +1574,10 @@
         <v>2.63</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
@@ -1610,7 +1610,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
@@ -1625,10 +1625,10 @@
         <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>1.78</v>
@@ -1804,28 +1804,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.25</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.75</v>
@@ -1834,7 +1834,7 @@
         <v>1.85</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R10" t="n">
         <v>1.34</v>
@@ -1855,16 +1855,16 @@
         <v>6.7</v>
       </c>
       <c r="X10" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>7.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
         <v>25</v>
@@ -1873,7 +1873,7 @@
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -1885,19 +1885,19 @@
         <v>500</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI10" t="n">
         <v>35</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK10" t="n">
         <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>50</v>
@@ -2074,22 +2074,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="I12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="J12" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -2097,10 +2097,10 @@
         <v>1.49</v>
       </c>
       <c r="P12" t="n">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
         <v>1.57</v>
@@ -2108,10 +2108,10 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="W12" t="n">
         <v>21</v>
@@ -2120,25 +2120,25 @@
         <v>55</v>
       </c>
       <c r="Y12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
         <v>200</v>
       </c>
       <c r="AA12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC12" t="n">
         <v>14.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>65</v>
@@ -2147,10 +2147,10 @@
         <v>400</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AJ12" t="n">
         <v>7.4</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J13" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
         <v>2.22</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M13" t="n">
         <v>1.23</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.7</v>
@@ -2233,10 +2233,10 @@
         <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2250,52 +2250,52 @@
         <v>8.25</v>
       </c>
       <c r="X13" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB13" t="n">
         <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE13" t="n">
         <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG13" t="n">
         <v>400</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
         <v>3.75</v>
@@ -2360,16 +2360,16 @@
         <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -2477,28 +2477,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="N15" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
         <v>2.3</v>
@@ -2513,31 +2513,31 @@
         <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="U15" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W15" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB15" t="n">
         <v>40</v>
@@ -2558,19 +2558,19 @@
         <v>900</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AI15" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
         <v>40</v>
@@ -2759,13 +2759,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2774,13 +2774,13 @@
         <v>1.8</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="N17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
         <v>3.1</v>
@@ -2792,7 +2792,7 @@
         <v>6.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="S17" t="n">
         <v>1.67</v>
@@ -2843,7 +2843,7 @@
         <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -2858,10 +2858,10 @@
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2904,10 +2904,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
         <v>3.6</v>
@@ -2922,19 +2922,19 @@
         <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="N18" t="n">
         <v>3.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R18" t="n">
         <v>1.3</v>
@@ -2964,16 +2964,16 @@
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
         <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3003,7 +3003,7 @@
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AO18" t="n">
         <v>11</v>
@@ -3069,10 +3069,10 @@
         <v>3.25</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q19" t="n">
         <v>3.75</v>
@@ -3126,7 +3126,7 @@
         <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
@@ -3204,10 +3204,10 @@
         <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>2.1</v>
@@ -3351,16 +3351,16 @@
         <v>3.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P21" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S21" t="n">
         <v>1.4</v>
@@ -3426,10 +3426,10 @@
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H2" t="n">
         <v>3.05</v>
       </c>
       <c r="I2" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="K2" t="n">
         <v>2.02</v>
       </c>
       <c r="L2" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="N2" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="O2" t="n">
         <v>2.02</v>
@@ -722,28 +722,28 @@
         <v>1.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W2" t="n">
         <v>9.25</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>12.5</v>
@@ -758,25 +758,25 @@
         <v>45</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF2" t="n">
         <v>75</v>
       </c>
       <c r="AG2" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
@@ -785,10 +785,10 @@
         <v>19.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -829,109 +829,109 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
         <v>6.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="N3" t="n">
-        <v>2.67</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.85</v>
+        <v>2.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
         <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -970,109 +970,109 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="H4" t="n">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="I4" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="L4" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="M4" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="O4" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="P4" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.32</v>
+        <v>2.67</v>
       </c>
       <c r="U4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.98</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W4" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.2</v>
@@ -1129,22 +1129,22 @@
         <v>5.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1159,25 +1159,25 @@
         <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="X5" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="Y5" t="n">
         <v>8</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD5" t="n">
         <v>6.6</v>
@@ -1192,28 +1192,28 @@
         <v>800</v>
       </c>
       <c r="AH5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
         <v>16.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
         <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1270,10 +1270,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
         <v>1.93</v>
@@ -1282,10 +1282,10 @@
         <v>1.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1294,10 +1294,10 @@
         <v>2.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W6" t="n">
         <v>6.4</v>
@@ -1389,37 +1389,37 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>3.05</v>
       </c>
       <c r="M7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="N7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O7" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="P7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
         <v>1.21</v>
@@ -1431,13 +1431,13 @@
         <v>2.37</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X7" t="n">
         <v>10.25</v>
@@ -1449,13 +1449,13 @@
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD7" t="n">
         <v>5.3</v>
@@ -1479,7 +1479,7 @@
         <v>8.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>17.5</v>
@@ -1550,16 +1550,16 @@
         <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.25</v>
@@ -1677,13 +1677,13 @@
         <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="J9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="L9" t="n">
         <v>6.5</v>
@@ -1698,24 +1698,24 @@
         <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W9" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
         <v>7</v>
@@ -1733,7 +1733,7 @@
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
         <v>9.5</v>
@@ -1742,7 +1742,7 @@
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG9" t="n">
         <v>500</v>
@@ -1763,7 +1763,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1804,97 +1804,97 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
         <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P10" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL10" t="n">
         <v>50</v>
@@ -2074,95 +2074,99 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="H12" t="n">
-        <v>4.85</v>
+        <v>4.25</v>
       </c>
       <c r="I12" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="J12" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="K12" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="L12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="O12" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="X12" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF12" t="n">
         <v>55</v>
       </c>
-      <c r="Y12" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AG12" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL12" t="n">
         <v>8.75</v>
       </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AM12" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
@@ -2203,96 +2207,96 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.7</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.55</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="K13" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="M13" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P13" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y13" t="n">
         <v>8.25</v>
       </c>
-      <c r="X13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
         <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
         <v>400</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
         <v>12.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
         <v>35</v>
@@ -2336,40 +2340,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O14" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -2378,37 +2382,37 @@
         <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
         <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
         <v>81</v>
@@ -2435,15 +2439,19 @@
         <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
+      <c r="AR14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2477,73 +2485,73 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I15" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="N15" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S15" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T15" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="U15" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z15" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD15" t="n">
         <v>5.8</v>
@@ -2552,34 +2560,34 @@
         <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG15" t="n">
         <v>900</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI15" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN15" t="n">
         <v>1.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2759,13 +2767,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="I17" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2777,34 +2785,34 @@
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="N17" t="n">
         <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
@@ -2825,7 +2833,7 @@
         <v>51</v>
       </c>
       <c r="AC17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD17" t="n">
         <v>5.5</v>
@@ -2834,13 +2842,13 @@
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG17" t="n">
         <v>101</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI17" t="n">
         <v>11</v>
@@ -2858,7 +2866,7 @@
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AO17" t="n">
         <v>5</v>
@@ -2904,61 +2912,61 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>1.25</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O18" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="P18" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
         <v>17</v>
@@ -2967,10 +2975,10 @@
         <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
         <v>7</v>
@@ -2979,13 +2987,13 @@
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
@@ -3003,10 +3011,10 @@
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3045,13 +3053,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J19" t="n">
         <v>2.5</v>
@@ -3060,7 +3068,7 @@
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.33</v>
@@ -3099,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
@@ -3111,7 +3119,7 @@
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
@@ -3129,13 +3137,13 @@
         <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="n">
         <v>41</v>
@@ -3144,10 +3152,10 @@
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3186,16 +3194,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
@@ -3237,7 +3245,7 @@
         <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -3267,10 +3275,10 @@
         <v>301</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -3279,7 +3287,7 @@
         <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>34</v>
@@ -3288,7 +3296,7 @@
         <v>1.07</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3327,22 +3335,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.29</v>
@@ -3351,16 +3359,16 @@
         <v>3.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P21" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S21" t="n">
         <v>1.4</v>
@@ -3369,25 +3377,25 @@
         <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
         <v>9</v>
       </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
         <v>17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
       </c>
       <c r="AB21" t="n">
         <v>26</v>
@@ -3396,7 +3404,7 @@
         <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -3405,25 +3413,25 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM21" t="n">
         <v>34</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
       </c>
       <c r="AN21" t="n">
         <v>1.05</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -692,103 +692,103 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="I2" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="J2" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="M2" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="N2" t="n">
-        <v>2.7</v>
+        <v>2.47</v>
       </c>
       <c r="O2" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="T2" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="W2" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG2" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -829,109 +829,109 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W3" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="X3" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AE3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH3" t="n">
         <v>19</v>
       </c>
-      <c r="AF3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
         <v>200</v>
       </c>
       <c r="AL3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM3" t="n">
         <v>80</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>70</v>
       </c>
       <c r="AN3" t="n">
         <v>1.06</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -1114,85 +1114,85 @@
         <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K5" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L5" t="n">
         <v>5.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="N5" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="X5" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z5" t="n">
         <v>12.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>32</v>
@@ -1210,10 +1210,10 @@
         <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.67</v>
@@ -1300,10 +1300,10 @@
         <v>1.88</v>
       </c>
       <c r="W6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Y6" t="n">
         <v>7.3</v>
@@ -1318,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>5.2</v>
@@ -1333,7 +1333,7 @@
         <v>300</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>14</v>
@@ -1348,7 +1348,7 @@
         <v>24</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
         <v>3.05</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="N7" t="n">
         <v>2.75</v>
@@ -1419,7 +1419,7 @@
         <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="R7" t="n">
         <v>1.21</v>
@@ -1431,10 +1431,10 @@
         <v>2.37</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="W7" t="n">
         <v>6.3</v>
@@ -1526,22 +1526,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.14</v>
@@ -1577,7 +1577,7 @@
         <v>13</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
@@ -1607,10 +1607,10 @@
         <v>81</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
@@ -1671,22 +1671,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="K9" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.17</v>
@@ -1701,48 +1701,48 @@
         <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA9" t="n">
         <v>10.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC9" t="n">
         <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
         <v>500</v>
@@ -1754,7 +1754,7 @@
         <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
         <v>200</v>
@@ -1763,7 +1763,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1804,22 +1804,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.28</v>
@@ -1828,19 +1828,19 @@
         <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P10" t="n">
         <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T10" t="n">
         <v>2.55</v>
@@ -1849,34 +1849,34 @@
         <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z10" t="n">
         <v>12.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
         <v>9.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF10" t="n">
         <v>75</v>
@@ -1888,16 +1888,16 @@
         <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
         <v>50</v>
@@ -2074,34 +2074,34 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7.3</v>
+        <v>8.25</v>
       </c>
       <c r="H12" t="n">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="J12" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="Q12" t="n">
         <v>2.2</v>
@@ -2112,58 +2112,58 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W12" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="X12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
         <v>50</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AK12" t="n">
         <v>8</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM12" t="n">
         <v>18</v>
@@ -2207,54 +2207,54 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
         <v>3.7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="X13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
         <v>8.25</v>
@@ -2263,31 +2263,31 @@
         <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG13" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>12.5</v>
@@ -2299,7 +2299,7 @@
         <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
@@ -2340,55 +2340,55 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
         <v>4.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
         <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O14" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
         <v>6.5</v>
@@ -2397,7 +2397,7 @@
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
@@ -2406,10 +2406,10 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
         <v>23</v>
@@ -2439,18 +2439,18 @@
         <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="15">
@@ -2626,22 +2626,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="I16" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J16" t="n">
         <v>7.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M16" t="n">
         <v>1.23</v>
@@ -2665,22 +2665,22 @@
         <v>1.36</v>
       </c>
       <c r="T16" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="U16" t="n">
         <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z16" t="n">
         <v>250</v>
@@ -2689,7 +2689,7 @@
         <v>110</v>
       </c>
       <c r="AB16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="n">
         <v>8</v>
@@ -2701,19 +2701,19 @@
         <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG16" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
         <v>6.1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK16" t="n">
         <v>8.25</v>
@@ -2722,7 +2722,7 @@
         <v>11.25</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN16" t="n">
         <v>1.05</v>
@@ -2773,7 +2773,7 @@
         <v>2.63</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2806,13 +2806,13 @@
         <v>1.73</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
@@ -2833,7 +2833,7 @@
         <v>51</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD17" t="n">
         <v>5.5</v>
@@ -2842,13 +2842,13 @@
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="n">
         <v>101</v>
       </c>
       <c r="AH17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI17" t="n">
         <v>11</v>
@@ -2857,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>29</v>
@@ -2912,22 +2912,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
         <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
         <v>1.25</v>
@@ -2948,7 +2948,7 @@
         <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
         <v>3</v>
@@ -2963,7 +2963,7 @@
         <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -2996,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>13</v>
@@ -3053,22 +3053,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L19" t="n">
         <v>4.33</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.33</v>
@@ -3077,10 +3077,10 @@
         <v>3.25</v>
       </c>
       <c r="O19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Q19" t="n">
         <v>3.75</v>
@@ -3095,25 +3095,25 @@
         <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
         <v>29</v>
@@ -3125,37 +3125,37 @@
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3194,22 +3194,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.36</v>
@@ -3218,22 +3218,22 @@
         <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
         <v>1.83</v>
@@ -3242,7 +3242,7 @@
         <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>12</v>
@@ -3251,16 +3251,16 @@
         <v>10</v>
       </c>
       <c r="Z20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="n">
         <v>23</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>21</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -3275,7 +3275,7 @@
         <v>301</v>
       </c>
       <c r="AH20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -3293,10 +3293,10 @@
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3353,16 +3353,16 @@
         <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P21" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q21" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -695,37 +695,37 @@
         <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I2" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L2" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="N2" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="O2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
         <v>1.47</v>
@@ -734,10 +734,10 @@
         <v>2.32</v>
       </c>
       <c r="U2" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
         <v>8.25</v>
@@ -755,37 +755,37 @@
         <v>40</v>
       </c>
       <c r="AB2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE2" t="n">
         <v>16</v>
       </c>
       <c r="AF2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AI2" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AM2" t="n">
         <v>35</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>1.95</v>
@@ -844,73 +844,73 @@
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.28</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
         <v>55</v>
@@ -931,7 +931,7 @@
         <v>1.06</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -970,22 +970,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="K4" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="M4" t="n">
         <v>1.35</v>
@@ -997,7 +997,7 @@
         <v>2.02</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q4" t="n">
         <v>3.35</v>
@@ -1006,10 +1006,10 @@
         <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1018,61 +1018,61 @@
         <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN4" t="n">
         <v>1.08</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1111,109 +1111,109 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>4.55</v>
       </c>
       <c r="J5" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="K5" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W5" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.4</v>
+        <v>8.75</v>
       </c>
       <c r="Y5" t="n">
         <v>7.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE5" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AH5" t="n">
         <v>14</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1252,22 +1252,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.33</v>
@@ -1276,10 +1276,10 @@
         <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q6" t="n">
         <v>3.5</v>
@@ -1300,31 +1300,31 @@
         <v>1.88</v>
       </c>
       <c r="W6" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF6" t="n">
         <v>45</v>
@@ -1333,22 +1333,22 @@
         <v>300</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI6" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK6" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1389,19 +1389,19 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.65</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.05</v>
-      </c>
       <c r="I7" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="L7" t="n">
         <v>3.05</v>
@@ -1413,10 +1413,10 @@
         <v>2.75</v>
       </c>
       <c r="O7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q7" t="n">
         <v>3.95</v>
@@ -1425,67 +1425,67 @@
         <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>10.25</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AB7" t="n">
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
         <v>17.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
@@ -1526,52 +1526,52 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.1</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.6</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W8" t="n">
         <v>13</v>
@@ -1580,22 +1580,22 @@
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1607,28 +1607,28 @@
         <v>81</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO8" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>1.78</v>
@@ -1671,13 +1671,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
         <v>1.78</v>
@@ -1701,57 +1701,57 @@
         <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="X9" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
         <v>10.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="n">
         <v>500</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
         <v>24</v>
@@ -1804,52 +1804,52 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.28</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.82</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.82</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
@@ -1858,49 +1858,49 @@
         <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
         <v>12.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
         <v>9.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AL10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM10" t="n">
         <v>55</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>50</v>
       </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
@@ -2074,34 +2074,34 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
         <v>2.2</v>
@@ -2112,16 +2112,16 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W12" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="X12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="n">
         <v>19.5</v>
@@ -2130,37 +2130,37 @@
         <v>175</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE12" t="n">
         <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH12" t="n">
         <v>6.2</v>
       </c>
       <c r="AI12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AK12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AL12" t="n">
         <v>9</v>
@@ -2207,22 +2207,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
         <v>2.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L13" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="M13" t="n">
         <v>1.24</v>
@@ -2234,16 +2234,20 @@
         <v>1.72</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+        <v>1.35</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.55</v>
+      </c>
       <c r="U13" t="n">
         <v>1.7</v>
       </c>
@@ -2251,52 +2255,52 @@
         <v>1.93</v>
       </c>
       <c r="W13" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA13" t="n">
         <v>14</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC13" t="n">
         <v>11.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AE13" t="n">
         <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG13" t="n">
         <v>450</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
         <v>12.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
         <v>37</v>
@@ -2340,46 +2344,46 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
         <v>4.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="N14" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="O14" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="R14" t="n">
         <v>1.17</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
         <v>2.38</v>
@@ -2388,7 +2392,7 @@
         <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
         <v>6.5</v>
@@ -2397,7 +2401,7 @@
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
@@ -2409,7 +2413,7 @@
         <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>23</v>
@@ -2439,7 +2443,7 @@
         <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AO14" t="n">
         <v>7</v>
@@ -2447,10 +2451,10 @@
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="15">
@@ -2485,37 +2489,37 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="H15" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="K15" t="n">
         <v>1.93</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="M15" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="N15" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="R15" t="n">
         <v>1.19</v>
@@ -2524,40 +2528,40 @@
         <v>1.52</v>
       </c>
       <c r="T15" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AB15" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD15" t="n">
         <v>5.8</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>100</v>
@@ -2566,28 +2570,28 @@
         <v>900</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AI15" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
         <v>37</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2767,91 +2771,91 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L17" t="n">
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="S17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V17" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="n">
         <v>51</v>
       </c>
       <c r="AC17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AD17" t="n">
         <v>5.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG17" t="n">
         <v>101</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -2860,16 +2864,16 @@
         <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AO17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -3053,34 +3057,34 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
         <v>3.75</v>
@@ -3104,16 +3108,16 @@
         <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
         <v>29</v>
@@ -3122,7 +3126,7 @@
         <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3134,19 +3138,19 @@
         <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM19" t="n">
         <v>41</v>
@@ -3293,10 +3297,10 @@
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3335,22 +3339,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>1.3</v>
@@ -3359,16 +3363,16 @@
         <v>3.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="P21" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
         <v>1.4</v>
@@ -3377,13 +3381,13 @@
         <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
         <v>10</v>
@@ -3413,7 +3417,7 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
         <v>10</v>
@@ -3428,16 +3432,16 @@
         <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>34</v>
       </c>
       <c r="AN21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -835,70 +835,70 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="N3" t="n">
         <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="X3" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC3" t="n">
         <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE3" t="n">
         <v>19.5</v>
@@ -907,10 +907,10 @@
         <v>100</v>
       </c>
       <c r="AG3" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>55</v>
@@ -925,7 +925,7 @@
         <v>100</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
         <v>1.06</v>
@@ -970,58 +970,58 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="M4" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="N4" t="n">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="O4" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="T4" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="W4" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="X4" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1030,49 +1030,49 @@
         <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>16</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1111,109 +1111,109 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="J5" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="M5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P5" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T5" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="X5" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Z5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>14</v>
       </c>
       <c r="AK5" t="n">
         <v>80</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1252,19 +1252,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L6" t="n">
         <v>3.4</v>
@@ -1288,10 +1288,10 @@
         <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
         <v>1.83</v>
@@ -1300,22 +1300,22 @@
         <v>1.88</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Y6" t="n">
         <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="n">
         <v>9.25</v>
@@ -1324,7 +1324,7 @@
         <v>5.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>45</v>
@@ -1333,22 +1333,22 @@
         <v>300</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AI6" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ6" t="n">
         <v>8.75</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1389,79 +1389,79 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="L7" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="M7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="N7" t="n">
         <v>2.75</v>
       </c>
       <c r="O7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="P7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
         <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC7" t="n">
         <v>7.1</v>
       </c>
-      <c r="X7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AD7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AE7" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF7" t="n">
         <v>50</v>
@@ -1470,19 +1470,19 @@
         <v>350</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AM7" t="n">
         <v>25</v>
@@ -2074,28 +2074,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="H12" t="n">
         <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="J12" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="M12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
         <v>1.62</v>
@@ -2112,61 +2112,61 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W12" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="X12" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AL12" t="n">
         <v>9</v>
       </c>
       <c r="AM12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
@@ -2207,22 +2207,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="K13" t="n">
         <v>2.22</v>
       </c>
       <c r="L13" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="M13" t="n">
         <v>1.24</v>
@@ -2234,13 +2234,13 @@
         <v>1.72</v>
       </c>
       <c r="P13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2255,52 +2255,52 @@
         <v>1.93</v>
       </c>
       <c r="W13" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X13" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
         <v>11.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG13" t="n">
         <v>450</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AM13" t="n">
         <v>37</v>
@@ -2344,28 +2344,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="N14" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="O14" t="n">
         <v>2.35</v>
@@ -2377,7 +2377,7 @@
         <v>4.33</v>
       </c>
       <c r="R14" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -2386,22 +2386,22 @@
         <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
@@ -2416,37 +2416,37 @@
         <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="n">
         <v>1250</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="n">
         <v>51</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
       </c>
       <c r="AM14" t="n">
         <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2633,58 +2633,58 @@
         <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="I16" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="J16" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="M16" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="N16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.7</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.72</v>
-      </c>
       <c r="W16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z16" t="n">
         <v>250</v>
@@ -2693,46 +2693,46 @@
         <v>110</v>
       </c>
       <c r="AB16" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG16" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AI16" t="n">
         <v>6.1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>11.25</v>
       </c>
       <c r="AM16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I17" t="n">
         <v>2.6</v>
@@ -2789,10 +2789,10 @@
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="O17" t="n">
         <v>3.6</v>
@@ -3339,22 +3339,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.3</v>
@@ -3363,10 +3363,10 @@
         <v>3.4</v>
       </c>
       <c r="O21" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q21" t="n">
         <v>3.5</v>
@@ -3390,22 +3390,22 @@
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
         <v>17</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6.5</v>
@@ -3420,22 +3420,22 @@
         <v>251</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="n">
         <v>29</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
         <v>1.06</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -829,79 +829,79 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="I3" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X3" t="n">
         <v>6.3</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB3" t="n">
         <v>28</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AE3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="n">
         <v>100</v>
@@ -910,28 +910,28 @@
         <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
         <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -970,40 +970,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L4" t="n">
         <v>3.85</v>
       </c>
       <c r="M4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="N4" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="O4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
         <v>1.47</v>
@@ -1012,34 +1012,34 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X4" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE4" t="n">
         <v>14.5</v>
@@ -1051,28 +1051,28 @@
         <v>700</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>11.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
         <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1111,76 +1111,76 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
         <v>1.42</v>
       </c>
       <c r="T5" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
         <v>6.9</v>
       </c>
       <c r="X5" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>25</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1192,28 +1192,28 @@
         <v>500</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN5" t="n">
         <v>1.06</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -2222,7 +2222,7 @@
         <v>2.22</v>
       </c>
       <c r="L13" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.24</v>
@@ -2237,10 +2237,10 @@
         <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2270,7 +2270,7 @@
         <v>13.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC13" t="n">
         <v>11.75</v>
@@ -2303,7 +2303,7 @@
         <v>35</v>
       </c>
       <c r="AM13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H14" t="n">
         <v>3.8</v>
@@ -2386,22 +2386,22 @@
         <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W14" t="n">
         <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
@@ -2428,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
         <v>19</v>
@@ -2771,22 +2771,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>2.63</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="J17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>1.73</v>
       </c>
       <c r="L17" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>1.8</v>
@@ -2819,19 +2819,19 @@
         <v>1.44</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="n">
         <v>51</v>
@@ -2840,7 +2840,7 @@
         <v>4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
@@ -2855,13 +2855,13 @@
         <v>5.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -2347,13 +2347,13 @@
         <v>1.57</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
         <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
@@ -2380,16 +2380,16 @@
         <v>1.2</v>
       </c>
       <c r="S14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.53</v>
       </c>
       <c r="W14" t="n">
         <v>5</v>
@@ -2425,7 +2425,7 @@
         <v>1250</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
         <v>26</v>
@@ -2451,10 +2451,10 @@
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="15">

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS29"/>
+  <dimension ref="A1:AS21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2207,22 +2207,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
         <v>2.22</v>
       </c>
       <c r="L13" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.24</v>
@@ -2237,10 +2237,10 @@
         <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2252,31 +2252,31 @@
         <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
         <v>7.7</v>
       </c>
       <c r="X13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA13" t="n">
         <v>13.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
         <v>11.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -2285,19 +2285,19 @@
         <v>65</v>
       </c>
       <c r="AG13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
         <v>35</v>
@@ -3448,574 +3448,6 @@
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>I1AwRPa3</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>05/03/2025</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>jeIi3M7d</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>05/03/2025</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>YmJp34fU</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>05/03/2025</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Juventud</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>CEleN7un</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>05/03/2025</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Liverpool M.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Montevideo City</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>QNFx5QPH</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>05/03/2025</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Miramar</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Progreso</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>pSn3LoAb</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>05/03/2025</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Plaza Colonia</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>vHbnP3UF</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>05/03/2025</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Racing Montevideo</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>4U24JPvB</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>05/03/2025</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Boston River</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -2207,40 +2207,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H13" t="n">
         <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K13" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
         <v>4.25</v>
       </c>
       <c r="M13" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2249,16 +2249,16 @@
         <v>2.55</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W13" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y13" t="n">
         <v>8.25</v>
@@ -2267,28 +2267,28 @@
         <v>14</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
         <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG13" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-05.xlsx
@@ -2207,40 +2207,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="J13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.27</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L13" t="n">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.22</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P13" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2249,58 +2249,58 @@
         <v>2.55</v>
       </c>
       <c r="U13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W13" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X13" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Y13" t="n">
         <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
         <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG13" t="n">
         <v>450</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
         <v>40</v>
